--- a/results/adf_table.xlsx
+++ b/results/adf_table.xlsx
@@ -1,21 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\demand_forecast\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>d0_trend</t>
+  </si>
+  <si>
+    <t>d0_constant</t>
+  </si>
+  <si>
+    <t>d1_trend</t>
+  </si>
+  <si>
+    <t>d1_constant</t>
+  </si>
+  <si>
+    <t>d1_none</t>
+  </si>
+  <si>
+    <t>ex_hommali</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.03***(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.95***(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.12***(10)</t>
+  </si>
+  <si>
+    <t>-14.47***(1)</t>
+  </si>
+  <si>
+    <t>-14.51***(1)</t>
+  </si>
+  <si>
+    <t>ex_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.68** (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.54***(3)</t>
+  </si>
+  <si>
+    <t>-15.84***(1)</t>
+  </si>
+  <si>
+    <t>-15.88***(1)</t>
+  </si>
+  <si>
+    <t>-15.92***(1)</t>
+  </si>
+  <si>
+    <t>p_w5_th</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.79   (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.98** (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -7.87***(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -7.80***(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -7.78***(1)</t>
+  </si>
+  <si>
+    <t>p_w5_vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.37*  (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.40** (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -8.25***(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -8.21***(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -8.22***(1)</t>
+  </si>
+  <si>
+    <t>p_h100_th</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.03   (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.90   (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -8.30***(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -8.26***(1)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +178,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +264,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +299,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,233 +475,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>d0_trend</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>d0_constant</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>d0_none</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>d1_trend</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>d1_constant</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>d1_none</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ex_hommali</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -6.03***(1)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -4.95***(1)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -0.31   (2)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -9.12***(10)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-14.47***(1)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-14.51***(1)</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ex_white</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -3.68** (3)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -3.54***(3)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -0.30   (2)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-15.84***(1)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-15.88***(1)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-15.92***(1)</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>p_w5_th</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -2.79   (1)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -2.98** (1)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0.52   (1)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -7.87***(1)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -7.80***(1)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -7.78***(1)</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>p_w5_vn</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -3.37*  (1)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -3.40** (1)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0.28   (2)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -8.25***(1)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -8.21***(1)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -8.22***(1)</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>p_h100_th</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -2.03   (1)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -1.90   (1)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0.91   (1)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -8.30***(1)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -8.30***(1)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -8.26***(1)</t>
-        </is>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
